--- a/data/trans_orig/P36B08_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B08_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>246890</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>225208</v>
+        <v>223880</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>268649</v>
+        <v>268870</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4997122503415061</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4558275104388982</v>
+        <v>0.4531402790052808</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5437532387551813</v>
+        <v>0.5442011482986927</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>256</v>
@@ -765,19 +765,19 @@
         <v>246279</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>226703</v>
+        <v>224727</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>267589</v>
+        <v>267655</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.528009205013252</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4860403224651168</v>
+        <v>0.4818024185202203</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5736963707590398</v>
+        <v>0.5738380530437992</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>504</v>
@@ -786,19 +786,19 @@
         <v>493169</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>460936</v>
+        <v>463588</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>523475</v>
+        <v>521870</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5134536565081674</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4798948692731251</v>
+        <v>0.4826558421880288</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5450070671708122</v>
+        <v>0.5433355830953902</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>247174</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>225415</v>
+        <v>225194</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>268856</v>
+        <v>270184</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5002877496584939</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4562467612448189</v>
+        <v>0.4557988517013073</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5441724895611021</v>
+        <v>0.5468597209947192</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>232</v>
@@ -836,19 +836,19 @@
         <v>220150</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>198840</v>
+        <v>198774</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>239726</v>
+        <v>241702</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4719907949867481</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4263036292409596</v>
+        <v>0.4261619469562006</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5139596775348829</v>
+        <v>0.5181975814797797</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>483</v>
@@ -857,19 +857,19 @@
         <v>467324</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>437018</v>
+        <v>438623</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>499557</v>
+        <v>496905</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4865463434918326</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4549929328291883</v>
+        <v>0.4566644169046099</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.520105130726875</v>
+        <v>0.5173441578119713</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>455705</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>427965</v>
+        <v>426364</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>482772</v>
+        <v>481015</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6195950169602653</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.581878189320852</v>
+        <v>0.5797010002855182</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6563959859241366</v>
+        <v>0.6540064970501364</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>405</v>
@@ -982,19 +982,19 @@
         <v>432060</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>407934</v>
+        <v>407650</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>451959</v>
+        <v>454262</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6907504169147587</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6521782320508059</v>
+        <v>0.6517252321154786</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7225637250644973</v>
+        <v>0.7262451768117681</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>835</v>
@@ -1003,19 +1003,19 @@
         <v>887765</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>851563</v>
+        <v>854794</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>925479</v>
+        <v>923330</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6522973222299702</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6256977452268017</v>
+        <v>0.6280716330866252</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.680008408618297</v>
+        <v>0.678429192178807</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>279784</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>252717</v>
+        <v>254474</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>307524</v>
+        <v>309125</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3804049830397346</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3436040140758638</v>
+        <v>0.3459935029498636</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4181218106791482</v>
+        <v>0.420298999714482</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>186</v>
@@ -1053,19 +1053,19 @@
         <v>193434</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>173535</v>
+        <v>171232</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>217560</v>
+        <v>217844</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3092495830852414</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2774362749355028</v>
+        <v>0.2737548231882319</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3478217679491942</v>
+        <v>0.3482747678845216</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>459</v>
@@ -1074,19 +1074,19 @@
         <v>473217</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>435503</v>
+        <v>437652</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>509419</v>
+        <v>506188</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3477026777700299</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3199915913817025</v>
+        <v>0.321570807821193</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3743022547731982</v>
+        <v>0.3719283669133748</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>391987</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>366469</v>
+        <v>366419</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>418668</v>
+        <v>416217</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6137566182945591</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5738022685216037</v>
+        <v>0.5737244991522812</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6555332086494047</v>
+        <v>0.6516958881041679</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>472</v>
@@ -1199,19 +1199,19 @@
         <v>498441</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>472426</v>
+        <v>476046</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>518936</v>
+        <v>521492</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7226462335263674</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6849289783847428</v>
+        <v>0.6901781633201176</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7523599019109117</v>
+        <v>0.7560667222082068</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>851</v>
@@ -1220,19 +1220,19 @@
         <v>890428</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>851768</v>
+        <v>857628</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>924738</v>
+        <v>924756</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.670294797452472</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6411923193919489</v>
+        <v>0.6456040260473523</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6961229802070933</v>
+        <v>0.6961362237446699</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>246681</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>220000</v>
+        <v>222451</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>272199</v>
+        <v>272249</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3862433817054409</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3444667913505953</v>
+        <v>0.3483041118958321</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4261977314783963</v>
+        <v>0.4262755008477188</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>186</v>
@@ -1270,19 +1270,19 @@
         <v>191303</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>170808</v>
+        <v>168252</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>217318</v>
+        <v>213698</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2773537664736327</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2476400980890883</v>
+        <v>0.2439332777917931</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3150710216152571</v>
+        <v>0.3098218366798823</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>420</v>
@@ -1291,19 +1291,19 @@
         <v>437984</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>403674</v>
+        <v>403656</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>476644</v>
+        <v>470784</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.329705202547528</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3038770197929065</v>
+        <v>0.3038637762553302</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3588076806080511</v>
+        <v>0.3543959739526476</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>334366</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>309322</v>
+        <v>311095</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>356874</v>
+        <v>355901</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6440680981455202</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5958265128491487</v>
+        <v>0.5992420321275792</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6874242128134215</v>
+        <v>0.6855497912532592</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>387</v>
@@ -1416,19 +1416,19 @@
         <v>397869</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>378008</v>
+        <v>378401</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>417277</v>
+        <v>415753</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7715992308428457</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7330827704790098</v>
+        <v>0.7338440240379953</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.809238069788655</v>
+        <v>0.8062817652073418</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>701</v>
@@ -1437,19 +1437,19 @@
         <v>732235</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>703265</v>
+        <v>699032</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>760689</v>
+        <v>759315</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7076176768213243</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6796218363293881</v>
+        <v>0.6755308723176131</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7351150512376632</v>
+        <v>0.7337874459109908</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>184781</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>162273</v>
+        <v>163246</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>209825</v>
+        <v>208052</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3559319018544797</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3125757871865785</v>
+        <v>0.3144502087467407</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4041734871508512</v>
+        <v>0.4007579678724208</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>115</v>
@@ -1487,19 +1487,19 @@
         <v>117773</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>98365</v>
+        <v>99889</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>137634</v>
+        <v>137241</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2284007691571543</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1907619302113452</v>
+        <v>0.1937182347926582</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2669172295209902</v>
+        <v>0.2661559759620047</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>285</v>
@@ -1508,19 +1508,19 @@
         <v>302554</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>274100</v>
+        <v>275474</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>331524</v>
+        <v>335757</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2923823231786757</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2648849487623368</v>
+        <v>0.2662125540890093</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3203781636706118</v>
+        <v>0.3244691276823871</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>271735</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>252733</v>
+        <v>253308</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>287369</v>
+        <v>288126</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7042035230554345</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6549599150261158</v>
+        <v>0.6564500392960336</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7447186042129083</v>
+        <v>0.7466812056832477</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>295</v>
@@ -1633,19 +1633,19 @@
         <v>300748</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>282030</v>
+        <v>282610</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>316366</v>
+        <v>316685</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7444518123114718</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.698118360834836</v>
+        <v>0.6995529070421564</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7831111682127271</v>
+        <v>0.7839012932492933</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>570</v>
@@ -1654,19 +1654,19 @@
         <v>572483</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>545698</v>
+        <v>547648</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>597259</v>
+        <v>597174</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7247890753364696</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6908776899027242</v>
+        <v>0.6933469219632455</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7561556945885969</v>
+        <v>0.7560490731624829</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>114141</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>98507</v>
+        <v>97750</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>133143</v>
+        <v>132568</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2957964769445655</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2552813957870917</v>
+        <v>0.2533187943167521</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3450400849738841</v>
+        <v>0.3435499607039661</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>101</v>
@@ -1704,19 +1704,19 @@
         <v>103238</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>87620</v>
+        <v>87301</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>121956</v>
+        <v>121376</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2555481876885281</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2168888317872727</v>
+        <v>0.2160987067507067</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3018816391651635</v>
+        <v>0.3004470929578441</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>217</v>
@@ -1725,19 +1725,19 @@
         <v>217379</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>192603</v>
+        <v>192688</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>244164</v>
+        <v>242214</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2752109246635304</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2438443054114026</v>
+        <v>0.2439509268375171</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3091223100972756</v>
+        <v>0.3066530780367541</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>212498</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>196520</v>
+        <v>196553</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>225788</v>
+        <v>226204</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7262815177340424</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6716718699285977</v>
+        <v>0.6717842279181079</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7717048135573403</v>
+        <v>0.7731263255036671</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>291</v>
@@ -1850,19 +1850,19 @@
         <v>267894</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>251846</v>
+        <v>252220</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>281377</v>
+        <v>280761</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7811837150040708</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7343869288748918</v>
+        <v>0.7354774684271678</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.820500381138037</v>
+        <v>0.8187038233932011</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>510</v>
@@ -1871,19 +1871,19 @@
         <v>480392</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>459552</v>
+        <v>458618</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>500304</v>
+        <v>499912</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7559075231552191</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7231155254246379</v>
+        <v>0.7216456567876266</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7872397943785525</v>
+        <v>0.786623038930359</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>80085</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>66795</v>
+        <v>66379</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>96063</v>
+        <v>96030</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2737184822659576</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2282951864426596</v>
+        <v>0.2268736744963328</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3283281300714022</v>
+        <v>0.3282157720818922</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>80</v>
@@ -1921,19 +1921,19 @@
         <v>75040</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>61557</v>
+        <v>62173</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>91088</v>
+        <v>90714</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2188162849959292</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1794996188619627</v>
+        <v>0.1812961766067988</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2656130711251083</v>
+        <v>0.2645225315728322</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>164</v>
@@ -1942,19 +1942,19 @@
         <v>155125</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>135213</v>
+        <v>135605</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>175965</v>
+        <v>176899</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2440924768447809</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2127602056214475</v>
+        <v>0.2133769610696411</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2768844745753619</v>
+        <v>0.2783543432123735</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>157951</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>144893</v>
+        <v>145211</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>169605</v>
+        <v>168275</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7525650811030133</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6903505960680605</v>
+        <v>0.6918686675321464</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8080943809140475</v>
+        <v>0.8017569317360695</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>226</v>
@@ -2067,19 +2067,19 @@
         <v>258279</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>241415</v>
+        <v>240307</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>273182</v>
+        <v>274683</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7735029621553556</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7229988517307439</v>
+        <v>0.71968147760826</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8181343467302048</v>
+        <v>0.8226321419132101</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>391</v>
@@ -2088,19 +2088,19 @@
         <v>416229</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>395033</v>
+        <v>396214</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>436123</v>
+        <v>437212</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7654217224175962</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7264420691678748</v>
+        <v>0.7286140276859797</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8020051073850007</v>
+        <v>0.8040074613994116</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>51932</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>40278</v>
+        <v>41608</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>64990</v>
+        <v>64672</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2474349188969867</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1919056190859524</v>
+        <v>0.1982430682639305</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3096494039319393</v>
+        <v>0.3081313324678535</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>64</v>
@@ -2138,19 +2138,19 @@
         <v>75629</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>60726</v>
+        <v>59225</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>92493</v>
+        <v>93601</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2264970378446443</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1818656532697956</v>
+        <v>0.17736785808679</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2770011482692563</v>
+        <v>0.28031852239174</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>119</v>
@@ -2159,19 +2159,19 @@
         <v>127562</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>107668</v>
+        <v>106579</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>148758</v>
+        <v>147577</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2345782775824038</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1979948926149993</v>
+        <v>0.1959925386005884</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2735579308321249</v>
+        <v>0.2713859723140203</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>2071131</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2023674</v>
+        <v>2017955</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2133695</v>
+        <v>2128854</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6322694572759981</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6177819094330131</v>
+        <v>0.6160361948544836</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6513687992264694</v>
+        <v>0.6498909466268467</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2332</v>
@@ -2284,19 +2284,19 @@
         <v>2401570</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2345042</v>
+        <v>2351555</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2455498</v>
+        <v>2451425</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7109155939729996</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6941819389954378</v>
+        <v>0.6961098922633981</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7268794223330922</v>
+        <v>0.7256737620509387</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4362</v>
@@ -2305,19 +2305,19 @@
         <v>4472702</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4388737</v>
+        <v>4402797</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4542687</v>
+        <v>4554752</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6721978578537066</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6595789440501905</v>
+        <v>0.6616919305088612</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6827159017497733</v>
+        <v>0.6845290510300438</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>1204578</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1142014</v>
+        <v>1146855</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1252035</v>
+        <v>1257754</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3677305427240019</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3486312007735312</v>
+        <v>0.3501090533731533</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3822180905669877</v>
+        <v>0.3839638051455162</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>964</v>
@@ -2355,19 +2355,19 @@
         <v>976567</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>922639</v>
+        <v>926712</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1033095</v>
+        <v>1026582</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2890844060270004</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2731205776669078</v>
+        <v>0.2743262379490614</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3058180610045624</v>
+        <v>0.303890107736602</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2147</v>
@@ -2376,19 +2376,19 @@
         <v>2181145</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2111160</v>
+        <v>2099095</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2265110</v>
+        <v>2251050</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3278021421462935</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3172840982502267</v>
+        <v>0.3154709489699563</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3404210559498095</v>
+        <v>0.3383080694911388</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>233283</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>211132</v>
+        <v>211912</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>255026</v>
+        <v>253971</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5136740494221455</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4648996857419834</v>
+        <v>0.4666158660891635</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5615516703122116</v>
+        <v>0.5592282838983329</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>268</v>
@@ -2744,19 +2744,19 @@
         <v>273813</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>253141</v>
+        <v>253576</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>293841</v>
+        <v>293725</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6378309867875104</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5896764259881341</v>
+        <v>0.5906899758652077</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.684484175461454</v>
+        <v>0.6842134947112889</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>494</v>
@@ -2765,19 +2765,19 @@
         <v>507096</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>474673</v>
+        <v>478787</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>536197</v>
+        <v>535284</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5740057373310251</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5373040990715128</v>
+        <v>0.5419607294079646</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6069461630854595</v>
+        <v>0.6059133105950644</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>220863</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>199120</v>
+        <v>200175</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>243014</v>
+        <v>242234</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4863259505778545</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4384483296877884</v>
+        <v>0.4407717161016671</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5351003142580167</v>
+        <v>0.5333841339108365</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>152</v>
@@ -2815,19 +2815,19 @@
         <v>155475</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>135447</v>
+        <v>135563</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>176147</v>
+        <v>175712</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3621690132124896</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.315515824538546</v>
+        <v>0.3157865052887111</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4103235740118659</v>
+        <v>0.4093100241347924</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>372</v>
@@ -2836,19 +2836,19 @@
         <v>376338</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>347237</v>
+        <v>348150</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>408761</v>
+        <v>404647</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4259942626689749</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3930538369145403</v>
+        <v>0.3940866894049356</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4626959009284871</v>
+        <v>0.4580392705920354</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>461126</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>435568</v>
+        <v>436681</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>483423</v>
+        <v>485756</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6711321252690423</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6339342846352043</v>
+        <v>0.6355548267452373</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7035833745941567</v>
+        <v>0.7069792991921098</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>428</v>
@@ -2961,19 +2961,19 @@
         <v>460344</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>438163</v>
+        <v>438350</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>483350</v>
+        <v>483306</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7543468713057038</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7179998013782626</v>
+        <v>0.7183067464125706</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7920465470408288</v>
+        <v>0.791973213986864</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>873</v>
@@ -2982,19 +2982,19 @@
         <v>921470</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>889330</v>
+        <v>889671</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>955822</v>
+        <v>955148</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7102754130801541</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6855013665811194</v>
+        <v>0.6857640844463637</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7367541330037426</v>
+        <v>0.7362343089158818</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>225961</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>203664</v>
+        <v>201331</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>251519</v>
+        <v>250406</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3288678747309577</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2964166254058435</v>
+        <v>0.2930207008078904</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3660657153647963</v>
+        <v>0.3644451732547627</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>143</v>
@@ -3032,19 +3032,19 @@
         <v>149911</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>126905</v>
+        <v>126949</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>172092</v>
+        <v>171905</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2456531286942963</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2079534529591712</v>
+        <v>0.208026786013136</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2820001986217374</v>
+        <v>0.2816932535874295</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>365</v>
@@ -3053,19 +3053,19 @@
         <v>375872</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>341520</v>
+        <v>342194</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>408012</v>
+        <v>407671</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.289724586919846</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2632458669962575</v>
+        <v>0.2637656910841185</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3144986334188808</v>
+        <v>0.3142359155536364</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>500568</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>479006</v>
+        <v>475697</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>521736</v>
+        <v>522121</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7352285676982283</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7035580015749283</v>
+        <v>0.6986992007026486</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7663203451410406</v>
+        <v>0.7668862605854505</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>542</v>
@@ -3178,19 +3178,19 @@
         <v>573931</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>551039</v>
+        <v>552179</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>596317</v>
+        <v>594755</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8085042741176647</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7762570846885518</v>
+        <v>0.7778621380864021</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8400407502861421</v>
+        <v>0.8378400223698612</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1017</v>
@@ -3199,19 +3199,19 @@
         <v>1074498</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1041972</v>
+        <v>1039850</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1105588</v>
+        <v>1106557</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.772631305121401</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.749243078128963</v>
+        <v>0.7477166483641093</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7949868788920915</v>
+        <v>0.7956834861793379</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>180265</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>159097</v>
+        <v>158712</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>201827</v>
+        <v>205136</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2647714323017717</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2336796548589587</v>
+        <v>0.2331137394145496</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2964419984250716</v>
+        <v>0.3013007992973515</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>124</v>
@@ -3249,19 +3249,19 @@
         <v>135936</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>113550</v>
+        <v>115112</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>158828</v>
+        <v>157688</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1914957258823353</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1599592497138579</v>
+        <v>0.1621599776301387</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2237429153114482</v>
+        <v>0.2221378619135978</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>299</v>
@@ -3270,19 +3270,19 @@
         <v>316202</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>285112</v>
+        <v>284143</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>348728</v>
+        <v>350850</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.227368694878599</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2050131211079086</v>
+        <v>0.2043165138206618</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2507569218710372</v>
+        <v>0.2522833516358906</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>444497</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>419817</v>
+        <v>421085</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>468041</v>
+        <v>469877</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7256189735835652</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.685329329982539</v>
+        <v>0.6873992154243861</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7640530743590659</v>
+        <v>0.7670495037881381</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>445</v>
@@ -3395,19 +3395,19 @@
         <v>508516</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>486702</v>
+        <v>489548</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>526838</v>
+        <v>525967</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8308359101236783</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7951956253946971</v>
+        <v>0.799845178232547</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.860772490609287</v>
+        <v>0.8593481629297887</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>841</v>
@@ -3416,19 +3416,19 @@
         <v>953013</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>922028</v>
+        <v>921454</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>981047</v>
+        <v>981452</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7782049447401962</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7529033638200753</v>
+        <v>0.752434998477677</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8010969222812346</v>
+        <v>0.8014275021902528</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>168080</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>144536</v>
+        <v>142700</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>192760</v>
+        <v>191492</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2743810264164348</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2359469256409343</v>
+        <v>0.2329504962118621</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.314670670017461</v>
+        <v>0.312600784575614</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>91</v>
@@ -3466,19 +3466,19 @@
         <v>103537</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>85215</v>
+        <v>86086</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>125351</v>
+        <v>122505</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1691640898763218</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.139227509390713</v>
+        <v>0.1406518370702114</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.204804374605303</v>
+        <v>0.2001548217674531</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>241</v>
@@ -3487,19 +3487,19 @@
         <v>271617</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>243583</v>
+        <v>243178</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>302602</v>
+        <v>303176</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2217950552598038</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1989030777187653</v>
+        <v>0.1985724978097472</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2470966361799247</v>
+        <v>0.2475650015223229</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>331738</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>313724</v>
+        <v>311366</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>348988</v>
+        <v>348471</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7725101477281033</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7305613514700191</v>
+        <v>0.7250689455824129</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8126801157507131</v>
+        <v>0.8114744334587281</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>334</v>
@@ -3612,19 +3612,19 @@
         <v>367173</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>348583</v>
+        <v>345540</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>382127</v>
+        <v>380856</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8233198351964389</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.781634876705919</v>
+        <v>0.7748119533595209</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8568529485161039</v>
+        <v>0.8540029557894934</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>638</v>
@@ -3633,19 +3633,19 @@
         <v>698911</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>672989</v>
+        <v>671673</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>723137</v>
+        <v>721039</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7983949086005927</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7687832282834028</v>
+        <v>0.7672801977533038</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8260697336749364</v>
+        <v>0.8236722197144389</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>97691</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>80441</v>
+        <v>80958</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>115705</v>
+        <v>118063</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2274898522718966</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.187319884249287</v>
+        <v>0.1885255665412719</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.269438648529981</v>
+        <v>0.2749310544175872</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>71</v>
@@ -3683,19 +3683,19 @@
         <v>78793</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>63839</v>
+        <v>65110</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>97383</v>
+        <v>100426</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1766801648035611</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1431470514838958</v>
+        <v>0.1459970442105068</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2183651232940808</v>
+        <v>0.2251880466404792</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>160</v>
@@ -3704,19 +3704,19 @@
         <v>176484</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>152258</v>
+        <v>154356</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>202406</v>
+        <v>203722</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2016050913994073</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1739302663250636</v>
+        <v>0.1763277802855608</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2312167717165968</v>
+        <v>0.2327198022466959</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>251638</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>236371</v>
+        <v>236583</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>264129</v>
+        <v>263460</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8204227270287662</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7706477815881964</v>
+        <v>0.7713410846163059</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8611472602303168</v>
+        <v>0.8589677139419053</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>300</v>
@@ -3829,19 +3829,19 @@
         <v>309614</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>296422</v>
+        <v>295541</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>321612</v>
+        <v>320394</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8746244259074687</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8373598691106282</v>
+        <v>0.8348719287599503</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9085174622792134</v>
+        <v>0.9050788270137624</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>527</v>
@@ -3850,19 +3850,19 @@
         <v>561251</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>542484</v>
+        <v>541079</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>578780</v>
+        <v>579360</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8494628687990033</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8210589980886986</v>
+        <v>0.8189318166268487</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8759924717349956</v>
+        <v>0.8768708404469039</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>55079</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>42588</v>
+        <v>43257</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>70346</v>
+        <v>70134</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1795772729712338</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1388527397696824</v>
+        <v>0.1410322860580946</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.229352218411803</v>
+        <v>0.228658915383694</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>44</v>
@@ -3900,19 +3900,19 @@
         <v>44382</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>32384</v>
+        <v>33602</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>57574</v>
+        <v>58455</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1253755740925313</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09148253772078663</v>
+        <v>0.09492117298623726</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1626401308893719</v>
+        <v>0.1651280712400489</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>96</v>
@@ -3921,19 +3921,19 @@
         <v>99462</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>81933</v>
+        <v>81353</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>118229</v>
+        <v>119634</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1505371312009967</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1240075282650044</v>
+        <v>0.1231291595530961</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1789410019113015</v>
+        <v>0.1810681833731513</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>210441</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>196532</v>
+        <v>197722</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>221274</v>
+        <v>222915</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8458832360571736</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7899771677686311</v>
+        <v>0.7947598138546251</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8894297804861937</v>
+        <v>0.8960274377854041</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>297</v>
@@ -4046,19 +4046,19 @@
         <v>329648</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>316008</v>
+        <v>314277</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>343854</v>
+        <v>343230</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8516886059437244</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8164490236234783</v>
+        <v>0.8119753901218142</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8883920138683378</v>
+        <v>0.8867792913168479</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>486</v>
@@ -4067,19 +4067,19 @@
         <v>540088</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>519509</v>
+        <v>519316</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>558713</v>
+        <v>557037</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8494171430898194</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.817051268047977</v>
+        <v>0.8167482771314819</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8787088387393274</v>
+        <v>0.8760727871180899</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>38341</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>27508</v>
+        <v>25867</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>52250</v>
+        <v>51060</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1541167639428264</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1105702195138063</v>
+        <v>0.1039725622145957</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2100228322313691</v>
+        <v>0.205240186145375</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>52</v>
@@ -4117,19 +4117,19 @@
         <v>57404</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>43198</v>
+        <v>43822</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>71044</v>
+        <v>72775</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1483113940562756</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1116079861316624</v>
+        <v>0.1132207086831522</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1835509763765219</v>
+        <v>0.1880246098781859</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>84</v>
@@ -4138,19 +4138,19 @@
         <v>95746</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>77121</v>
+        <v>78797</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>116325</v>
+        <v>116518</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1505828569101806</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1212911612606726</v>
+        <v>0.1239272128819101</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1829487319520228</v>
+        <v>0.1832517228685181</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>2433291</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2383346</v>
+        <v>2377581</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2489346</v>
+        <v>2484783</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7115778080582933</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6969721790471286</v>
+        <v>0.6952862571398259</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7279701507878756</v>
+        <v>0.7266359960446286</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2614</v>
@@ -4263,19 +4263,19 @@
         <v>2823037</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2774518</v>
+        <v>2774454</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2870926</v>
+        <v>2873530</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.795563053083408</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7818896786822317</v>
+        <v>0.7818717245024267</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8090587413278787</v>
+        <v>0.8097926177105443</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4876</v>
@@ -4284,19 +4284,19 @@
         <v>5256329</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5187540</v>
+        <v>5179933</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5335256</v>
+        <v>5329566</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7543472740988879</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7444752489769761</v>
+        <v>0.7433835899677026</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7656742497742314</v>
+        <v>0.764857777511878</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>986280</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>930225</v>
+        <v>934788</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1036225</v>
+        <v>1041990</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2884221919417068</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2720298492121244</v>
+        <v>0.2733640039553714</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.303027820952871</v>
+        <v>0.3047137428601737</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>677</v>
@@ -4334,19 +4334,19 @@
         <v>725440</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>677551</v>
+        <v>674947</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>773959</v>
+        <v>774023</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.204436946916592</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1909412586721213</v>
+        <v>0.1902073822894556</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2181103213177682</v>
+        <v>0.2181282754975732</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1617</v>
@@ -4355,19 +4355,19 @@
         <v>1711720</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1632793</v>
+        <v>1638483</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1780509</v>
+        <v>1788116</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2456527259011121</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2343257502257685</v>
+        <v>0.235142222488122</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2555247510230238</v>
+        <v>0.2566164100322973</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>256584</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>236184</v>
+        <v>236001</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>279374</v>
+        <v>276282</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6164023540314149</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5673950478018835</v>
+        <v>0.566956703105468</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6711530502510987</v>
+        <v>0.663723899835144</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>253</v>
@@ -4723,19 +4723,19 @@
         <v>248452</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>231461</v>
+        <v>231495</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>266450</v>
+        <v>268319</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6308715893775252</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5877273782099949</v>
+        <v>0.5878142663991546</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6765721468636257</v>
+        <v>0.6813170725497437</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>494</v>
@@ -4744,19 +4744,19 @@
         <v>505036</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>478799</v>
+        <v>476588</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>534182</v>
+        <v>531859</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6234366034255227</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.591049110480445</v>
+        <v>0.588319638312092</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6594154543826976</v>
+        <v>0.6565479124477956</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>159676</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>136886</v>
+        <v>139978</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>180076</v>
+        <v>180259</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3835976459685851</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3288469497489012</v>
+        <v>0.336276100164856</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4326049521981159</v>
+        <v>0.433043296894532</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>149</v>
@@ -4794,19 +4794,19 @@
         <v>145372</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>127374</v>
+        <v>125505</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>162363</v>
+        <v>162329</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3691284106224748</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3234278531363743</v>
+        <v>0.3186829274502562</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4122726217900051</v>
+        <v>0.4121857336008454</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>298</v>
@@ -4815,19 +4815,19 @@
         <v>305048</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>275902</v>
+        <v>278225</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>331285</v>
+        <v>333496</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3765633965744773</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3405845456173025</v>
+        <v>0.3434520875522045</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4089508895195551</v>
+        <v>0.4116803616879081</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>402690</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>379918</v>
+        <v>381525</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>426784</v>
+        <v>425127</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6843078210845956</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6456109014847431</v>
+        <v>0.6483418852693814</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7252520523291387</v>
+        <v>0.7224361471822874</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>416</v>
@@ -4940,19 +4940,19 @@
         <v>405438</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>384079</v>
+        <v>385018</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>426717</v>
+        <v>424057</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7243557915193996</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6861966747791838</v>
+        <v>0.6878737957226728</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.762373578763466</v>
+        <v>0.7576211982917062</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>802</v>
@@ -4961,19 +4961,19 @@
         <v>808128</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>777220</v>
+        <v>776772</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>838468</v>
+        <v>837123</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7038305701782933</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.676910903865808</v>
+        <v>0.676520912591658</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7302545713305082</v>
+        <v>0.7290832810020053</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>185773</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>161679</v>
+        <v>163336</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>208545</v>
+        <v>206938</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3156921789154044</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2747479476708615</v>
+        <v>0.2775638528177122</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3543890985152571</v>
+        <v>0.3516581147306185</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>159</v>
@@ -5011,19 +5011,19 @@
         <v>154284</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>133005</v>
+        <v>135665</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>175643</v>
+        <v>174704</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2756442084806004</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2376264212365339</v>
+        <v>0.2423788017082938</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3138033252208162</v>
+        <v>0.3121262042773272</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>338</v>
@@ -5032,19 +5032,19 @@
         <v>340058</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>309718</v>
+        <v>311063</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>370966</v>
+        <v>371414</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2961694298217067</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2697454286694919</v>
+        <v>0.2709167189979947</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3230890961341921</v>
+        <v>0.323479087408342</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>474741</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>449405</v>
+        <v>450746</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>496642</v>
+        <v>496519</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7105261254688793</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6726075122202321</v>
+        <v>0.6746139584097678</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.743304942336706</v>
+        <v>0.7431202238076835</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>515</v>
@@ -5157,19 +5157,19 @@
         <v>514232</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>494181</v>
+        <v>492402</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>534186</v>
+        <v>534353</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7798561005432108</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7494481909991992</v>
+        <v>0.7467504475691008</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8101183129137157</v>
+        <v>0.8103709031582212</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>967</v>
@@ -5178,19 +5178,19 @@
         <v>988973</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>957657</v>
+        <v>958938</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1019322</v>
+        <v>1019009</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.744962329906113</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7213731447287115</v>
+        <v>0.722338133450672</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7678240026506258</v>
+        <v>0.7675880146761904</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>193413</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>171512</v>
+        <v>171635</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>218749</v>
+        <v>217408</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2894738745311207</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.256695057663294</v>
+        <v>0.2568797761923166</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3273924877797681</v>
+        <v>0.3253860415902323</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>148</v>
@@ -5228,19 +5228,19 @@
         <v>145161</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>125207</v>
+        <v>125040</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>165212</v>
+        <v>166991</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2201438994567892</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1898816870862842</v>
+        <v>0.1896290968417788</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2505518090008008</v>
+        <v>0.2532495524308991</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>333</v>
@@ -5249,19 +5249,19 @@
         <v>338574</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>308225</v>
+        <v>308538</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>369890</v>
+        <v>368609</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2550376700938869</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2321759973493744</v>
+        <v>0.2324119853238095</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2786268552712886</v>
+        <v>0.277661866549328</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>454367</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>430791</v>
+        <v>431396</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>476249</v>
+        <v>478868</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7110431522409079</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6741500335679043</v>
+        <v>0.6750965589686407</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7452876398690401</v>
+        <v>0.7493851113130043</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>483</v>
@@ -5374,19 +5374,19 @@
         <v>519936</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>497835</v>
+        <v>499105</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>538597</v>
+        <v>539042</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8037640271237373</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7695986486961677</v>
+        <v>0.7715615216944812</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8326123583997113</v>
+        <v>0.8333002066116925</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>895</v>
@@ -5395,19 +5395,19 @@
         <v>974302</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>937141</v>
+        <v>940132</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1003671</v>
+        <v>1007142</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7576870244758668</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7287880015387866</v>
+        <v>0.7311138773909297</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7805265381885845</v>
+        <v>0.7832259285955312</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>184647</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>162765</v>
+        <v>160146</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>208223</v>
+        <v>207618</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2889568477590922</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.25471236013096</v>
+        <v>0.2506148886869958</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3258499664320957</v>
+        <v>0.3249034410313593</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>117</v>
@@ -5445,19 +5445,19 @@
         <v>126940</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>108279</v>
+        <v>107834</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>149041</v>
+        <v>147771</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1962359728762627</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1673876416002888</v>
+        <v>0.1666997933883076</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2304013513038323</v>
+        <v>0.2284384783055188</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>281</v>
@@ -5466,19 +5466,19 @@
         <v>311588</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>282219</v>
+        <v>278748</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>348749</v>
+        <v>345758</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2423129755241332</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2194734618114155</v>
+        <v>0.2167740714044691</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2712119984612137</v>
+        <v>0.2688861226090705</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>370205</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>347347</v>
+        <v>352594</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>386854</v>
+        <v>389114</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7795819543019732</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7314478844644562</v>
+        <v>0.7424963410551171</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8146421853260865</v>
+        <v>0.8194002266905968</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>356</v>
@@ -5591,19 +5591,19 @@
         <v>408524</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>390174</v>
+        <v>390819</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>425723</v>
+        <v>426314</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8278775461070126</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7906897873667394</v>
+        <v>0.7919981265114744</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8627296656777582</v>
+        <v>0.8639278665146969</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>685</v>
@@ -5612,19 +5612,19 @@
         <v>778728</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>751766</v>
+        <v>751678</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>802496</v>
+        <v>803337</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8041931916384518</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.77634916109372</v>
+        <v>0.7762583916215235</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8287380205595511</v>
+        <v>0.8296060301722863</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>104671</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>88022</v>
+        <v>85762</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>127529</v>
+        <v>122282</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2204180456980268</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1853578146739131</v>
+        <v>0.1805997733094032</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2685521155355433</v>
+        <v>0.2575036589448832</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>74</v>
@@ -5662,19 +5662,19 @@
         <v>84936</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>67737</v>
+        <v>67146</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>103286</v>
+        <v>102641</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1721224538929874</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1372703343222417</v>
+        <v>0.1360721334853035</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2093102126332605</v>
+        <v>0.2080018734885258</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>167</v>
@@ -5683,19 +5683,19 @@
         <v>189607</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>165839</v>
+        <v>164998</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>216569</v>
+        <v>216657</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1958068083615481</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1712619794404492</v>
+        <v>0.170393969827714</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2236508389062802</v>
+        <v>0.2237416083784768</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>269173</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>253029</v>
+        <v>254121</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>282175</v>
+        <v>282915</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8073432188036296</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7589207373660452</v>
+        <v>0.7621980851210286</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8463398766301372</v>
+        <v>0.8485589793800323</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>296</v>
@@ -5808,19 +5808,19 @@
         <v>317663</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>303098</v>
+        <v>302917</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>331558</v>
+        <v>331171</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8455528608970129</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.806783794817136</v>
+        <v>0.8063010883609352</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8825380528556623</v>
+        <v>0.8815072528489925</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>558</v>
@@ -5829,19 +5829,19 @@
         <v>586836</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>565892</v>
+        <v>566934</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>607124</v>
+        <v>607393</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8275872173244913</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7980498326087407</v>
+        <v>0.7995199557783751</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.856197938848143</v>
+        <v>0.8565773617729715</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>64233</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>51231</v>
+        <v>50491</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>80377</v>
+        <v>79285</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1926567811963704</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.153660123369863</v>
+        <v>0.1514410206199676</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2410792626339552</v>
+        <v>0.2378019148789714</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>56</v>
@@ -5879,19 +5879,19 @@
         <v>58024</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>44129</v>
+        <v>44516</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>72589</v>
+        <v>72770</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1544471391029871</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1174619471443378</v>
+        <v>0.1184927471510076</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.193216205182864</v>
+        <v>0.1936989116390649</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>118</v>
@@ -5900,19 +5900,19 @@
         <v>122257</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>101969</v>
+        <v>101700</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>143201</v>
+        <v>142159</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1724127826755088</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1438020611518574</v>
+        <v>0.1434226382270286</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2019501673912593</v>
+        <v>0.2004800442216256</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>213850</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>202054</v>
+        <v>201724</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>224397</v>
+        <v>223945</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.832108119717035</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7862093663985894</v>
+        <v>0.7849239064105389</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8731471741974343</v>
+        <v>0.8713865321147727</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>238</v>
@@ -6025,19 +6025,19 @@
         <v>316549</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>293967</v>
+        <v>298523</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>334011</v>
+        <v>334446</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7937095332338859</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7370876534829273</v>
+        <v>0.7485111880242257</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8374943641939772</v>
+        <v>0.8385849194962794</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>490</v>
@@ -6046,19 +6046,19 @@
         <v>530399</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>509155</v>
+        <v>506761</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>549976</v>
+        <v>549927</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8087568946429923</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7763646458318234</v>
+        <v>0.7727133335238131</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.838608620582627</v>
+        <v>0.8385332505614842</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>43148</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>32601</v>
+        <v>33053</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>54944</v>
+        <v>55274</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.167891880282965</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1268528258025657</v>
+        <v>0.1286134678852274</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2137906336014106</v>
+        <v>0.2150760935894612</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>62</v>
@@ -6096,19 +6096,19 @@
         <v>82273</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>64811</v>
+        <v>64376</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>104855</v>
+        <v>100299</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2062904667661141</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1625056358060228</v>
+        <v>0.1614150805037205</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2629123465170729</v>
+        <v>0.2514888119757743</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>112</v>
@@ -6117,19 +6117,19 @@
         <v>125421</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>105844</v>
+        <v>105893</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>146665</v>
+        <v>149059</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1912431053570077</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1613913794173731</v>
+        <v>0.1614667494385159</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2236353541681766</v>
+        <v>0.2272866664761868</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>2441609</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2384617</v>
+        <v>2385157</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2494305</v>
+        <v>2490472</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7229745773568595</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7060988334748287</v>
+        <v>0.7062590082952122</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7385782521067578</v>
+        <v>0.7374432492166588</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2557</v>
@@ -6242,19 +6242,19 @@
         <v>2730794</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2681855</v>
+        <v>2676539</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2779995</v>
+        <v>2782399</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7740819879060942</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7602095461874366</v>
+        <v>0.7587026461628381</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7880286629912968</v>
+        <v>0.7887100599667769</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4891</v>
@@ -6263,19 +6263,19 @@
         <v>5172404</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5100042</v>
+        <v>5097170</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5242625</v>
+        <v>5251175</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7490856667729355</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7386060304800989</v>
+        <v>0.7381901090429763</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7592553431749243</v>
+        <v>0.760493680271219</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>935562</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>882866</v>
+        <v>886699</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>992554</v>
+        <v>992014</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2770254226431405</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2614217478932421</v>
+        <v>0.2625567507833412</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2939011665251708</v>
+        <v>0.2937409917047878</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>765</v>
@@ -6313,19 +6313,19 @@
         <v>796990</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>747789</v>
+        <v>745385</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>845929</v>
+        <v>851245</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2259180120939058</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2119713370087027</v>
+        <v>0.2112899400332231</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2397904538125632</v>
+        <v>0.2412973538371619</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1647</v>
@@ -6334,19 +6334,19 @@
         <v>1732552</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1662331</v>
+        <v>1653781</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1804914</v>
+        <v>1807786</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2509143332270645</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2407446568250756</v>
+        <v>0.239506319728781</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2613939695199009</v>
+        <v>0.2618098909570236</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>375427</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>352684</v>
+        <v>354632</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>389777</v>
+        <v>389751</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9206321703653766</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.864859567834365</v>
+        <v>0.8696375077077715</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9558204323947611</v>
+        <v>0.9557560496475513</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>191</v>
@@ -6702,19 +6702,19 @@
         <v>332994</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>316197</v>
+        <v>314677</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>344676</v>
+        <v>345252</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9185724360208436</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8722392278645957</v>
+        <v>0.8680457767897718</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9507975388516667</v>
+        <v>0.9523876400542287</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>350</v>
@@ -6723,19 +6723,19 @@
         <v>708421</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>682329</v>
+        <v>678845</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>726910</v>
+        <v>726982</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9196628422048796</v>
+        <v>0.9196628422048794</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8857908675391417</v>
+        <v>0.8812680985140544</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9436652863009318</v>
+        <v>0.9437589889473448</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>32366</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18016</v>
+        <v>18042</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>55109</v>
+        <v>53161</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.07936782963462347</v>
+        <v>0.07936782963462348</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04417956760523878</v>
+        <v>0.04424395035244846</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1351404321656348</v>
+        <v>0.1303624922922286</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -6773,19 +6773,19 @@
         <v>29518</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17836</v>
+        <v>17260</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>46315</v>
+        <v>47835</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08142756397915638</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04920246114833321</v>
+        <v>0.04761235994577123</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1277607721354045</v>
+        <v>0.1319542232102282</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>29</v>
@@ -6794,19 +6794,19 @@
         <v>61884</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>43395</v>
+        <v>43323</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>87976</v>
+        <v>91460</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08033715779512059</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05633471369906818</v>
+        <v>0.05624101105265526</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1142091324608584</v>
+        <v>0.1187319014859455</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>450457</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>434278</v>
+        <v>433696</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>461403</v>
+        <v>460552</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.9445723532634199</v>
+        <v>0.9445723532634198</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9106469866951381</v>
+        <v>0.9094252738373488</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9675255068366198</v>
+        <v>0.9657401891286707</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>439</v>
@@ -6919,19 +6919,19 @@
         <v>477269</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>465641</v>
+        <v>464530</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>485358</v>
+        <v>485553</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9543326930129398</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9310801843063876</v>
+        <v>0.9288600918418082</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9705063897510963</v>
+        <v>0.970896106869244</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>725</v>
@@ -6940,19 +6940,19 @@
         <v>927727</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>908080</v>
+        <v>909671</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>940776</v>
+        <v>942152</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9495684967026428</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9294589299974703</v>
+        <v>0.9310880310911616</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9629250424358382</v>
+        <v>0.9643339515405225</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>26433</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>15487</v>
+        <v>16338</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>42612</v>
+        <v>43194</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.05542764673658011</v>
+        <v>0.05542764673658012</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03247449316338009</v>
+        <v>0.03425981087132927</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08935301330486145</v>
+        <v>0.09057472616265114</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>20</v>
@@ -6990,19 +6990,19 @@
         <v>22839</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14750</v>
+        <v>14555</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>34467</v>
+        <v>35578</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04566730698706024</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02949361024890371</v>
+        <v>0.02910389313075604</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0689198156936123</v>
+        <v>0.07113990815819182</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>36</v>
@@ -7011,19 +7011,19 @@
         <v>49271</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>36222</v>
+        <v>34846</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>68918</v>
+        <v>67327</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05043150329735727</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03707495756416156</v>
+        <v>0.03566604845947777</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07054107000252964</v>
+        <v>0.06891196890883891</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>584275</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>569005</v>
+        <v>570813</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>595490</v>
+        <v>595649</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9428058980637337</v>
+        <v>0.9428058980637335</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9181661875733422</v>
+        <v>0.9210833135550437</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9609027179376826</v>
+        <v>0.9611597731912864</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>816</v>
@@ -7136,19 +7136,19 @@
         <v>598500</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>588979</v>
+        <v>587656</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>605451</v>
+        <v>605430</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9620039876440775</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9466995512772539</v>
+        <v>0.9445740348361558</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.973176763099083</v>
+        <v>0.9731422754310396</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1331</v>
@@ -7157,19 +7157,19 @@
         <v>1182775</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1166981</v>
+        <v>1166252</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1196828</v>
+        <v>1195527</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9524236504998003</v>
+        <v>0.9524236504998</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9397055972276136</v>
+        <v>0.9391183498460873</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9637395584418604</v>
+        <v>0.9626924949312291</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>35444</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>24229</v>
+        <v>24070</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>50714</v>
+        <v>48906</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.0571941019362663</v>
+        <v>0.05719410193626628</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03909728206231766</v>
+        <v>0.03884022680871364</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08183381242665778</v>
+        <v>0.0789166864449561</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>30</v>
@@ -7207,19 +7207,19 @@
         <v>23639</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>16688</v>
+        <v>16709</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>33160</v>
+        <v>34483</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03799601235592256</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02682323690091717</v>
+        <v>0.02685772456896033</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0533004487227461</v>
+        <v>0.05542596516384436</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>60</v>
@@ -7228,19 +7228,19 @@
         <v>59083</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>45030</v>
+        <v>46331</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>74877</v>
+        <v>75606</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04757634950019982</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03626044155813976</v>
+        <v>0.03730750506877074</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06029440277238644</v>
+        <v>0.06088165015391278</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>665011</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>648802</v>
+        <v>651101</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>675213</v>
+        <v>675307</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.9491785204493223</v>
+        <v>0.9491785204493222</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9260432360718994</v>
+        <v>0.9293249619494417</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9637403224512148</v>
+        <v>0.9638746646342207</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1097</v>
@@ -7353,19 +7353,19 @@
         <v>707887</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>697702</v>
+        <v>698919</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>714992</v>
+        <v>715211</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.9621464347150434</v>
+        <v>0.9621464347150436</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9483030668479084</v>
+        <v>0.9499573664767089</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9718042044045239</v>
+        <v>0.9721016602799749</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1729</v>
@@ -7374,19 +7374,19 @@
         <v>1372897</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1355667</v>
+        <v>1357431</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1386184</v>
+        <v>1386685</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.9558210141473997</v>
+        <v>0.9558210141473999</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9438253743033045</v>
+        <v>0.9450529682682541</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9650713561460681</v>
+        <v>0.9654199075930772</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>35606</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>25404</v>
+        <v>25310</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>51815</v>
+        <v>49516</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.05082147955067768</v>
+        <v>0.05082147955067766</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03625967754878459</v>
+        <v>0.03612533536577923</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07395676392810006</v>
+        <v>0.07067503805055809</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>42</v>
@@ -7424,19 +7424,19 @@
         <v>27850</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20745</v>
+        <v>20526</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>38035</v>
+        <v>36818</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03785356528495672</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02819579559547615</v>
+        <v>0.02789833972002534</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0516969331520927</v>
+        <v>0.05004263352329104</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>75</v>
@@ -7445,19 +7445,19 @@
         <v>63457</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>50170</v>
+        <v>49669</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>80687</v>
+        <v>78923</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04417898585260012</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03492864385393173</v>
+        <v>0.03458009240692288</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05617462569669555</v>
+        <v>0.0549470317317459</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>569322</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>556812</v>
+        <v>557433</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>579153</v>
+        <v>578966</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.93708748651491</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9164960251431191</v>
+        <v>0.9175182377893679</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9532688963211027</v>
+        <v>0.9529619392033014</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>969</v>
@@ -7570,19 +7570,19 @@
         <v>587541</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>578907</v>
+        <v>578948</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>593793</v>
+        <v>594304</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.9649939964960145</v>
+        <v>0.9649939964960146</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9508132853810002</v>
+        <v>0.9508806849663579</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9752619203576921</v>
+        <v>0.9761003927777373</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1590</v>
@@ -7591,19 +7591,19 @@
         <v>1156863</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1141062</v>
+        <v>1142636</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1169244</v>
+        <v>1169232</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9510557860719484</v>
+        <v>0.9510557860719476</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9380658715110136</v>
+        <v>0.9393593757633903</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9612343297137832</v>
+        <v>0.9612242509453455</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>38222</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>28391</v>
+        <v>28578</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>50732</v>
+        <v>50111</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.06291251348508999</v>
+        <v>0.06291251348508997</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0467311036788975</v>
+        <v>0.04703806079669862</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0835039748568811</v>
+        <v>0.08248176221063226</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>33</v>
@@ -7641,19 +7641,19 @@
         <v>21314</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15062</v>
+        <v>14551</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29948</v>
+        <v>29907</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03500600350398541</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02473807964230781</v>
+        <v>0.0238996072222628</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0491867146190002</v>
+        <v>0.04911931503364201</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>73</v>
@@ -7662,19 +7662,19 @@
         <v>59536</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>47155</v>
+        <v>47167</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>75337</v>
+        <v>73763</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.04894421392805197</v>
+        <v>0.04894421392805196</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03876567028621684</v>
+        <v>0.03877574905465481</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06193412848898645</v>
+        <v>0.06064062423660956</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>386409</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>377568</v>
+        <v>377371</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>393114</v>
+        <v>393251</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9515713496682752</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9297984090072553</v>
+        <v>0.9293129398368619</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9680812648363104</v>
+        <v>0.9684185186683625</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>799</v>
@@ -7787,19 +7787,19 @@
         <v>422926</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>416884</v>
+        <v>415704</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>427781</v>
+        <v>427801</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9654722114566076</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9516786479886862</v>
+        <v>0.94898446346737</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9765550446434909</v>
+        <v>0.9766010789697229</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1344</v>
@@ -7808,19 +7808,19 @@
         <v>809335</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>798663</v>
+        <v>798592</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>817548</v>
+        <v>817487</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.9587850604799782</v>
+        <v>0.9587850604799781</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9461424727317138</v>
+        <v>0.9460574500730898</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.968514212377263</v>
+        <v>0.9684424622625024</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>19666</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12961</v>
+        <v>12824</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>28507</v>
+        <v>28704</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04842865033172472</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03191873516368959</v>
+        <v>0.03158148133163724</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07020159099274455</v>
+        <v>0.070687060163138</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>26</v>
@@ -7858,19 +7858,19 @@
         <v>15125</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10270</v>
+        <v>10250</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21167</v>
+        <v>22347</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03452778854339249</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02344495535650906</v>
+        <v>0.02339892103027708</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04832135201131377</v>
+        <v>0.05101553653263007</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>50</v>
@@ -7879,19 +7879,19 @@
         <v>34791</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>26578</v>
+        <v>26639</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>45463</v>
+        <v>45534</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.04121493952002189</v>
+        <v>0.04121493952002188</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03148578762273748</v>
+        <v>0.03155753773749746</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0538575272682864</v>
+        <v>0.05394254992691047</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>298349</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>290978</v>
+        <v>291535</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>302518</v>
+        <v>303340</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9641888125175136</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9403691932210962</v>
+        <v>0.9421691774695413</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9776615734123351</v>
+        <v>0.9803184223659965</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>846</v>
@@ -8004,19 +8004,19 @@
         <v>444841</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>437451</v>
+        <v>437462</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>450185</v>
+        <v>450259</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9600896300271587</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9441397016509391</v>
+        <v>0.9441629341608231</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9716220589039227</v>
+        <v>0.9717836896731864</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1287</v>
@@ -8025,19 +8025,19 @@
         <v>743190</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>734470</v>
+        <v>734243</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>750572</v>
+        <v>751768</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9617310249368262</v>
+        <v>0.9617310249368264</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.950447034293134</v>
+        <v>0.9501533441003392</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9712837262208797</v>
+        <v>0.9728311434373023</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>11081</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6912</v>
+        <v>6090</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18452</v>
+        <v>17895</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0358111874824863</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02233842658766498</v>
+        <v>0.0196815776340035</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05963080677890353</v>
+        <v>0.05783082253045864</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>32</v>
@@ -8075,19 +8075,19 @@
         <v>18492</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>13148</v>
+        <v>13074</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>25882</v>
+        <v>25871</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03991036997284128</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02837794109607727</v>
+        <v>0.02821631032681359</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0558602983490611</v>
+        <v>0.05583706583917659</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>48</v>
@@ -8096,19 +8096,19 @@
         <v>29573</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>22191</v>
+        <v>20995</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>38293</v>
+        <v>38520</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03826897506317384</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02871627377912024</v>
+        <v>0.02716885656269764</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04955296570686563</v>
+        <v>0.04984665589966078</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>3329251</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3288115</v>
+        <v>3292092</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3355620</v>
+        <v>3357710</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.9436467648788963</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.9319870849755064</v>
+        <v>0.933114333370953</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9511209811416641</v>
+        <v>0.9517132989287185</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5157</v>
@@ -8221,19 +8221,19 @@
         <v>3571959</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3547584</v>
+        <v>3547251</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3594607</v>
+        <v>3594819</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.9574409779078216</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.9509075415943987</v>
+        <v>0.9508182653074082</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.963511874239131</v>
+        <v>0.9635685045573145</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8356</v>
@@ -8242,19 +8242,19 @@
         <v>6901209</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6860177</v>
+        <v>6862992</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6939375</v>
+        <v>6940294</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.9507364393368332</v>
+        <v>0.9507364393368331</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.9450836908993709</v>
+        <v>0.9454715237452681</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9559943003090421</v>
+        <v>0.9561209057931217</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>198818</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>172449</v>
+        <v>170359</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>239954</v>
+        <v>235977</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.05635323512110369</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04887901885833602</v>
+        <v>0.04828670107128149</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06801291502449398</v>
+        <v>0.06688566662904691</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>199</v>
@@ -8292,19 +8292,19 @@
         <v>158776</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>136128</v>
+        <v>135916</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>183151</v>
+        <v>183484</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.04255902209217846</v>
+        <v>0.04255902209217847</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03648812576086877</v>
+        <v>0.03643149544268569</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04909245840560111</v>
+        <v>0.04918173469259161</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>371</v>
@@ -8313,19 +8313,19 @@
         <v>357595</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>319429</v>
+        <v>318510</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>398627</v>
+        <v>395812</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0492635606631669</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04400569969095795</v>
+        <v>0.04387909420687835</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05491630910062913</v>
+        <v>0.05452847625473194</v>
       </c>
     </row>
     <row r="27">
